--- a/data_processed/20250811/BTCUSDVOLSURFACE_20250811.xlsx
+++ b/data_processed/20250811/BTCUSDVOLSURFACE_20250811.xlsx
@@ -665,7 +665,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7745,7 +7745,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7853,7 +7853,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7907,7 +7907,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8098,7 +8098,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8156,7 +8156,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8239,7 +8239,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8492,7 +8492,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -40741,7 +40741,7 @@
       </c>
       <c r="G1528" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -40799,7 +40799,7 @@
       </c>
       <c r="G1530" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -40882,7 +40882,7 @@
       </c>
       <c r="G1533" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
